--- a/data/hlm/fake_soil_data.xlsx
+++ b/data/hlm/fake_soil_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\PyProjects\MySimpleLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\PyProjects\simpleLearning\data\hlm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60634DC5-BA47-4F45-BAAC-66648499607B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077A08D6-0C66-46DC-A705-5443E6423BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="840" windowWidth="11388" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13068" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,18 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -425,10 +422,13 @@
       <c r="I1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>6.75</v>
@@ -453,6 +453,9 @@
       </c>
       <c r="I2">
         <v>32.9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
